--- a/Needs Analysis Survey Results.xlsx
+++ b/Needs Analysis Survey Results.xlsx
@@ -34,7 +34,7 @@
   </si>
   <si>
     <t>Analysis: Likert scale - will give a score between 1-5 to each question
-use http://poincare.matf.bg.ac.rs/~kristina/topic-dane-likert.pdf for analysis 
+use http://poincare.matf.bg.ac.rs/~kristina/topic-dane-likert.pdf and http://www.measuringu.com/blog/interpret-responses.php for analysis 
 used "Wording for rating scales" on mendeley to develop wording for questions</t>
   </si>
 </sst>
@@ -74,10 +74,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,7 +376,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -395,24 +395,24 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
